--- a/notebook/finance-nb/financial_plan.xlsx
+++ b/notebook/finance-nb/financial_plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EDBE46DF-5AC2-4470-822E-FB6885DE82A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2E0734FF-5C98-4FC5-8D68-85BB923F22A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tsa" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">mv!$D$1:$D$130</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tsa!$A$1:$I$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tsa!$A$1:$I$97</definedName>
     <definedName name="category">[1]dict!$D$4:$M$4</definedName>
     <definedName name="channel">[1]dict!$D$3:$M$3</definedName>
     <definedName name="理财账户">dict!$A$17:$A$23</definedName>
@@ -64,6 +64,60 @@
           </rPr>
           <t xml:space="preserve">
 购买的次数 默认为1 表示首次购买该股票 如果平仓后重新买入则自增1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H114" authorId="0" shapeId="0" xr:uid="{020819BE-91A1-4E67-8DC9-7DD3785B4A8C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暂估
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H118" authorId="0" shapeId="0" xr:uid="{AE762FE8-8760-4597-B163-C23D1950E940}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暂估
+</t>
         </r>
       </text>
     </comment>
@@ -381,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{10B0E1B0-094D-4493-A069-FC58CD252490}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{10B0E1B0-094D-4493-A069-FC58CD252490}">
       <text>
         <r>
           <rPr>
@@ -409,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{CDB79DEA-466C-4CDA-9B73-3411F56A2204}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{CDB79DEA-466C-4CDA-9B73-3411F56A2204}">
       <text>
         <r>
           <rPr>
@@ -567,7 +621,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="167">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -749,14 +803,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人人贷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -793,10 +839,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>planning_prop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -880,10 +922,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>债券型基金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -910,150 +948,186 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>P3P</t>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个月期限的滚动产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊利股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-05</t>
+  </si>
+  <si>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>2018-07</t>
+  </si>
+  <si>
+    <t>博时富华纯债债券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华海药业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同期hs300收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同期zz500收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建行3507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信现金增利货币002758</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大摩强收益债券233005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时富华纯债债券003730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额宝</t>
+  </si>
+  <si>
+    <t>花呗</t>
+  </si>
+  <si>
+    <t>account_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大摩强收益债券233005</t>
+  </si>
+  <si>
+    <t>博时富华纯债债券003730</t>
+  </si>
+  <si>
+    <t>货币型基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏财富宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信零钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零用钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全或者几乎不生息类资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钞票、活期存款、微信零钱等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括货币型、纯债型、指数型、主动型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币性基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯债型基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数型基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>主动型基金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P3P</t>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1个月期限的滚动产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊利股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>博时富华纯债债券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华海药业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同期hs300收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同期zz500收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建行3507</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格力电器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建信现金增利货币002758</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大摩强收益债券233005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博时富华纯债债券003730</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额宝</t>
-  </si>
-  <si>
-    <t>花呗</t>
-  </si>
-  <si>
-    <t>account_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天天基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰证券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大摩强收益债券233005</t>
-  </si>
-  <si>
-    <t>博时富华纯债债券003730</t>
-  </si>
-  <si>
-    <t>货币型基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏财富宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信零钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零用钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全或者几乎不生息类资产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钞票、活期存款、微信零钱等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括货币型、纯债型、指数型、主动型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币性基金</t>
+    <t>定期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期定期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中长期定期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝_理财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固收类产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1061,46 +1135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指数型基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动型基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短期定期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中长期定期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝_理财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固收类产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯债型基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>股票空仓闲置资金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1193,6 +1227,30 @@
   </si>
   <si>
     <t>花呗透支额度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信中证500指数增强C005633</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝_173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约暂时冻结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan_prop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan_amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1203,7 +1261,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1235,14 +1293,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
@@ -1255,23 +1305,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1287,6 +1322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,30 +1358,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1348,6 +1381,8 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1721,11 +1756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H99" sqref="H99"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1758,7 +1793,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -2003,1479 +2038,1491 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>43159</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" t="s">
         <v>32</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>542.66</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>-1000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>43161</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>273.97000000000003</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <v>-500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>43182</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12">
         <v>1689.28</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12">
         <v>-3000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>43187</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>1143.45</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <v>-2000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>43207</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" t="s">
         <v>32</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14">
         <v>273.97000000000003</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <v>-500</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>43216</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" t="s">
         <v>32</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <v>1167.07</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15">
         <v>-2000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>43238</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" t="s">
         <v>32</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16">
         <v>-7000</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16">
         <v>12428.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>43244</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" t="s">
         <v>32</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>573.62</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17">
         <v>-1000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>43245</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" t="s">
         <v>32</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <v>287.41000000000003</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>43262</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" t="s">
         <v>32</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19">
         <f>-SUM(H2:H18)</f>
         <v>-6597.1799999999994</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19">
         <v>11434.23</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>43315</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" t="s">
         <v>32</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20">
         <v>1290.9100000000001</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>43318</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" t="s">
         <v>32</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21">
         <v>652.91</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21">
         <v>-1000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>43327</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" t="s">
         <v>32</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22">
         <v>649.9</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22">
         <v>-1000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>43346</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" t="s">
         <v>32</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23">
         <v>321.79000000000002</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>43348</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" t="s">
         <v>32</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24">
         <f>323.88*2</f>
         <v>647.76</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24">
         <v>-1000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>43349</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" t="s">
         <v>32</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25">
         <v>326.88</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25">
         <v>-500</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>43353</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" t="s">
         <v>32</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26">
         <v>330.1</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>43354</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" t="s">
         <v>32</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27">
         <v>330.69</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>43360</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" t="s">
         <v>32</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28">
         <v>332.31</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28">
         <v>-500</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>43364</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" t="s">
         <v>32</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29">
         <v>-4883.25</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29">
         <v>7775.6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>43381</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" t="s">
         <v>32</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30">
         <v>649.22</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30">
         <v>-1000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>43382</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" t="s">
         <v>32</v>
       </c>
       <c r="F31">
         <v>3</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31">
         <v>324.8</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31">
         <v>-500</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>43384</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" t="s">
         <v>32</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32">
         <v>680.92</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>43388</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" t="s">
         <v>32</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33">
         <v>340.27</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>43389</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" t="s">
         <v>32</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34">
         <v>342.72</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34">
         <v>-500</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>43391</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" t="s">
         <v>32</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35">
         <v>348.55</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35">
         <v>-500</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>43395</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" t="s">
         <v>32</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36">
         <v>-2686.48</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36">
         <v>4096.59</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>43399</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" t="s">
         <v>32</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37">
         <v>335.77</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37">
         <v>-500</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>43402</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" t="s">
         <v>32</v>
       </c>
       <c r="F38">
         <v>4</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38">
         <v>690.66</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38">
         <v>-1000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>43409</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" t="s">
         <v>32</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39">
         <v>327.05</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39">
         <v>-500</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>43410</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" t="s">
         <v>32</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40">
         <v>328.86</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40">
         <v>-500</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>43413</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41">
         <v>4</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41">
         <v>336.07</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41">
         <v>-500</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>43418</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42">
         <v>4</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42">
         <v>665.11</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42">
         <v>-1000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>43424</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43">
         <v>4</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43">
         <v>662.25</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43">
         <v>-1000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>43426</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44">
         <v>4</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44">
         <v>331.48</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44">
         <v>-500</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>43427</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45">
         <v>4</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45">
         <f>2*338.32</f>
         <v>676.64</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45">
         <v>-1000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>43431</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46">
         <v>4</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46">
         <v>339.01</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46">
         <v>-500</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>43439</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47">
         <v>4</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47">
         <v>327.87</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47">
         <v>-500</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="6" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>43440</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48">
         <v>4</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48">
         <v>669.12</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48">
         <v>-1000</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>43444</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49">
         <v>4</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49">
         <v>338.11</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49">
         <v>-500</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>43448</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50">
         <v>4</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" t="s">
         <v>19</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50">
         <v>335.98</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50">
         <v>-500</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>43452</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51">
         <v>4</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51">
         <v>339.67</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51">
         <v>-500</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>43453</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52">
         <v>4</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52">
         <v>343.48</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52">
         <v>-500</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>43454</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53">
         <v>4</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53">
         <v>346</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53">
         <v>-500</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>43455</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54">
         <v>4</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54">
         <v>350.09</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54">
         <v>-500</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>43459</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55">
         <v>4</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" t="s">
         <v>19</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55">
         <v>702.84</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55">
         <v>-1000</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>43461</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56">
         <v>4</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56">
         <v>354.36</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56">
         <v>-500</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>43117</v>
+        <v>43467</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H57">
-        <v>300</v>
+        <v>-8800.42</v>
       </c>
       <c r="I57">
-        <v>-7947</v>
+        <v>12324.58</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>43130</v>
+        <v>43102</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G58" t="s">
         <v>19</v>
       </c>
       <c r="H58">
-        <v>100</v>
+        <v>9227.1</v>
       </c>
       <c r="I58">
-        <v>-2655</v>
+        <v>-13000</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>43140</v>
+        <v>43103</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
       </c>
       <c r="H59">
-        <v>100</v>
+        <v>357.32</v>
       </c>
       <c r="I59">
-        <v>-2430</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>43167</v>
-      </c>
-      <c r="B60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" t="s">
-        <v>27</v>
+        <v>43468</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60">
-        <v>-300</v>
+        <v>19</v>
+      </c>
+      <c r="H60" s="18">
+        <v>3156.57</v>
       </c>
       <c r="I60">
-        <v>8320.5</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>43182</v>
+        <v>43117</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -3490,18 +3537,18 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H61">
-        <v>-200</v>
+        <v>300</v>
       </c>
       <c r="I61">
-        <v>5175.71</v>
+        <v>-7947</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>43167</v>
+        <v>43130</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -3510,7 +3557,7 @@
         <v>27</v>
       </c>
       <c r="E62" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -3519,15 +3566,15 @@
         <v>19</v>
       </c>
       <c r="H62">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I62">
-        <v>-8735.17</v>
+        <v>-2655</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>43182</v>
+        <v>43140</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -3536,7 +3583,7 @@
         <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -3545,15 +3592,15 @@
         <v>19</v>
       </c>
       <c r="H63">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I63">
-        <v>-4880.1000000000004</v>
+        <v>-2430</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>43192</v>
+        <v>43167</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -3562,7 +3609,7 @@
         <v>27</v>
       </c>
       <c r="E64" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3571,15 +3618,15 @@
         <v>20</v>
       </c>
       <c r="H64">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I64">
-        <v>7151.7</v>
+        <v>8320.5</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>43207</v>
+        <v>43182</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -3588,7 +3635,7 @@
         <v>27</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3597,15 +3644,15 @@
         <v>20</v>
       </c>
       <c r="H65">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="I65">
-        <v>6959.89</v>
+        <v>5175.71</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>43250</v>
+        <v>43167</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -3617,21 +3664,21 @@
         <v>26</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
       </c>
       <c r="H66">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I66">
-        <v>-3295</v>
+        <v>-8735.17</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>43270</v>
+        <v>43182</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -3643,21 +3690,21 @@
         <v>26</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
       </c>
       <c r="H67">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I67">
-        <v>-1523</v>
+        <v>-4880.1000000000004</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>43272</v>
+        <v>43192</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -3669,21 +3716,21 @@
         <v>26</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H68">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="I68">
-        <v>-1426</v>
+        <v>7151.7</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>43318</v>
+        <v>43207</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -3695,7 +3742,7 @@
         <v>26</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
@@ -3704,12 +3751,12 @@
         <v>-400</v>
       </c>
       <c r="I69">
-        <v>5880</v>
+        <v>6959.89</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>43049</v>
+        <v>43250</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -3718,24 +3765,24 @@
         <v>27</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" t="s">
         <v>19</v>
       </c>
       <c r="H70">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I70">
-        <v>-1526</v>
+        <v>-3295</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>43109</v>
+        <v>43270</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -3744,24 +3791,24 @@
         <v>27</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H71">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I71">
-        <v>1406</v>
+        <v>-1523</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>43049</v>
+        <v>43272</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -3770,24 +3817,24 @@
         <v>27</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="s">
         <v>19</v>
       </c>
       <c r="H72">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I72">
-        <v>-9726.4</v>
+        <v>-1426</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>43109</v>
+        <v>43318</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -3796,10 +3843,10 @@
         <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="s">
         <v>20</v>
@@ -3808,12 +3855,12 @@
         <v>-400</v>
       </c>
       <c r="I73">
-        <v>10172</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>43203</v>
+        <v>43049</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -3822,7 +3869,7 @@
         <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3834,12 +3881,12 @@
         <v>100</v>
       </c>
       <c r="I74">
-        <v>-3935.08</v>
+        <v>-1526</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>43207</v>
+        <v>43109</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -3848,24 +3895,24 @@
         <v>27</v>
       </c>
       <c r="E75" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H75">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I75">
-        <v>-3886.08</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>43216</v>
+        <v>43049</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -3874,7 +3921,7 @@
         <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3883,15 +3930,15 @@
         <v>19</v>
       </c>
       <c r="H76">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I76">
-        <v>-3716.07</v>
+        <v>-9726.4</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>43230</v>
+        <v>43109</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
@@ -3900,7 +3947,7 @@
         <v>27</v>
       </c>
       <c r="E77" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3909,15 +3956,15 @@
         <v>20</v>
       </c>
       <c r="H77">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I77">
-        <v>12911.81</v>
+        <v>10172</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>43230</v>
+        <v>43203</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -3926,7 +3973,7 @@
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3935,15 +3982,15 @@
         <v>19</v>
       </c>
       <c r="H78">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I78">
-        <v>-7922.16</v>
+        <v>-3935.08</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>43243</v>
+        <v>43207</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -3952,7 +3999,7 @@
         <v>27</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3964,12 +4011,12 @@
         <v>100</v>
       </c>
       <c r="I79">
-        <v>-2648.05</v>
+        <v>-3886.08</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>43250</v>
+        <v>43216</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -3978,24 +4025,24 @@
         <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H80">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="I80">
-        <v>11375.38</v>
+        <v>-3716.07</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>43315</v>
+        <v>43230</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -4004,24 +4051,24 @@
         <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H81">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="I81">
-        <v>-6724</v>
+        <v>12911.81</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>43318</v>
+        <v>43230</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -4030,7 +4077,7 @@
         <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -4039,15 +4086,15 @@
         <v>19</v>
       </c>
       <c r="H82">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I82">
-        <v>-6190</v>
+        <v>-7922.16</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>43322</v>
+        <v>43243</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -4056,24 +4103,24 @@
         <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H83">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I83">
-        <v>6990</v>
+        <v>-2648.05</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>43348</v>
+        <v>43250</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
@@ -4082,24 +4129,24 @@
         <v>27</v>
       </c>
       <c r="E84" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H84">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="I84">
-        <v>-6486.13</v>
+        <v>11375.38</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>43362</v>
+        <v>43315</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -4108,24 +4155,24 @@
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H85">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I85">
-        <v>5924.94</v>
+        <v>-6724</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>43369</v>
+        <v>43318</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
@@ -4134,24 +4181,24 @@
         <v>27</v>
       </c>
       <c r="E86" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H86">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I86">
-        <v>6350.51</v>
+        <v>-6190</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>43384</v>
+        <v>43322</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -4160,24 +4207,24 @@
         <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H87">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I87">
-        <v>-5545.11</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>43391</v>
+        <v>43348</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -4186,24 +4233,24 @@
         <v>27</v>
       </c>
       <c r="E88" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H88">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I88">
-        <v>5765.1</v>
+        <v>-6486.13</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>43402</v>
+        <v>43362</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
@@ -4212,50 +4259,50 @@
         <v>27</v>
       </c>
       <c r="E89" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H89">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="I89">
-        <v>-2265.0500000000002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="17">
-        <v>43406</v>
-      </c>
-      <c r="B90" s="18" t="s">
+        <v>5924.94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>43369</v>
+      </c>
+      <c r="B90" t="s">
         <v>26</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" t="s">
         <v>27</v>
       </c>
-      <c r="E90" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F90" s="18">
+      <c r="E90" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90">
         <v>1</v>
       </c>
-      <c r="G90" s="18" t="s">
+      <c r="G90" t="s">
         <v>20</v>
       </c>
-      <c r="H90" s="18">
-        <v>-200</v>
-      </c>
-      <c r="I90" s="18">
-        <v>2568.37</v>
+      <c r="H90">
+        <v>-100</v>
+      </c>
+      <c r="I90">
+        <v>6350.51</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>43424</v>
+        <v>43384</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -4264,10 +4311,10 @@
         <v>27</v>
       </c>
       <c r="E91" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -4276,12 +4323,12 @@
         <v>100</v>
       </c>
       <c r="I91">
-        <v>-3797.08</v>
+        <v>-5545.11</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>43439</v>
+        <v>43391</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
@@ -4290,24 +4337,24 @@
         <v>27</v>
       </c>
       <c r="E92" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H92">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I92">
-        <v>-3741.07</v>
+        <v>5765.1</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>43444</v>
+        <v>43402</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
@@ -4316,7 +4363,7 @@
         <v>27</v>
       </c>
       <c r="E93" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4325,56 +4372,50 @@
         <v>19</v>
       </c>
       <c r="H93">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I93">
-        <v>-3582.07</v>
+        <v>-2265.0500000000002</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>43038</v>
+        <v>43406</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" s="2">
-        <v>19947.23</v>
+        <v>20</v>
+      </c>
+      <c r="H94">
+        <v>-200</v>
       </c>
       <c r="I94">
-        <v>-19970</v>
+        <v>2568.37</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>43136</v>
+        <v>43424</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4382,28 +4423,25 @@
       <c r="G95" t="s">
         <v>19</v>
       </c>
-      <c r="H95" s="2">
-        <v>4903.76</v>
+      <c r="H95">
+        <v>100</v>
       </c>
       <c r="I95">
-        <v>-5000</v>
+        <v>-3797.08</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>43138</v>
+        <v>43439</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E96" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -4412,27 +4450,24 @@
         <v>19</v>
       </c>
       <c r="H96">
-        <v>1056.8399999999999</v>
+        <v>100</v>
       </c>
       <c r="I96">
-        <v>-1000</v>
+        <v>-3741.07</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>43140</v>
+        <v>43444</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -4441,15 +4476,15 @@
         <v>19</v>
       </c>
       <c r="H97">
-        <v>1081.45</v>
+        <v>100</v>
       </c>
       <c r="I97">
-        <v>-1000</v>
+        <v>-3582.07</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>43238</v>
+        <v>43038</v>
       </c>
       <c r="B98" t="s">
         <v>43</v>
@@ -4467,18 +4502,18 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H98">
-        <v>-20000</v>
+        <v>19947.23</v>
       </c>
       <c r="I98">
-        <v>19892.04</v>
+        <v>-19970</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>43244</v>
+        <v>43136</v>
       </c>
       <c r="B99" t="s">
         <v>43</v>
@@ -4499,15 +4534,15 @@
         <v>19</v>
       </c>
       <c r="H99">
-        <v>1024.42</v>
+        <v>4903.76</v>
       </c>
       <c r="I99">
-        <v>-1000</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>43245</v>
+        <v>43138</v>
       </c>
       <c r="B100" t="s">
         <v>43</v>
@@ -4528,15 +4563,15 @@
         <v>19</v>
       </c>
       <c r="H100">
-        <v>514.54</v>
+        <v>1056.8399999999999</v>
       </c>
       <c r="I100">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>43251</v>
+        <v>43140</v>
       </c>
       <c r="B101" t="s">
         <v>43</v>
@@ -4554,88 +4589,88 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H101">
-        <v>-8528.24</v>
+        <v>1081.45</v>
       </c>
       <c r="I101">
-        <v>8371.92</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>43161</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102" s="6" t="s">
+        <v>43238</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" t="s">
         <v>33</v>
       </c>
       <c r="D102" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="E102" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="H102">
-        <v>5893.25</v>
+        <v>-20000</v>
       </c>
       <c r="I102">
-        <v>-10000</v>
+        <v>19892.04</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>43173</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C103" s="6" t="s">
+        <v>43244</v>
+      </c>
+      <c r="B103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" t="s">
         <v>33</v>
       </c>
       <c r="D103" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="E103" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H103">
-        <v>5884.58</v>
+        <v>1024.42</v>
       </c>
       <c r="I103">
-        <v>-10000</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>43201</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C104" s="6" t="s">
+        <v>43245</v>
+      </c>
+      <c r="B104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" t="s">
         <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="E104" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -4644,95 +4679,94 @@
         <v>19</v>
       </c>
       <c r="H104">
-        <v>4083.37</v>
+        <v>514.54</v>
       </c>
       <c r="I104">
-        <v>-7000</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>43210</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C105" s="6" t="s">
+        <v>43251</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" t="s">
         <v>33</v>
       </c>
       <c r="D105" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="E105" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H105">
-        <v>5808.97</v>
+        <v>-8528.24</v>
       </c>
       <c r="I105">
-        <v>-10000</v>
+        <v>8371.92</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>43262</v>
-      </c>
-      <c r="B106" s="6" t="s">
+        <v>43161</v>
+      </c>
+      <c r="B106" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" t="s">
         <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E106" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H106">
-        <f>-SUM(H102:H105)</f>
-        <v>-21670.170000000002</v>
+        <v>5893.25</v>
       </c>
       <c r="I106">
-        <v>37075</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>43412</v>
-      </c>
-      <c r="B107" s="6" t="s">
+        <v>43173</v>
+      </c>
+      <c r="B107" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" t="s">
         <v>33</v>
       </c>
       <c r="D107" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E107" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
       </c>
       <c r="H107">
-        <v>5670.19</v>
+        <v>5884.58</v>
       </c>
       <c r="I107">
         <v>-10000</v>
@@ -4740,19 +4774,19 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>43412</v>
-      </c>
-      <c r="B108" s="6" t="s">
+        <v>43201</v>
+      </c>
+      <c r="B108" t="s">
         <v>25</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" t="s">
         <v>33</v>
       </c>
       <c r="D108" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E108" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -4761,19 +4795,312 @@
         <v>19</v>
       </c>
       <c r="H108">
+        <v>4083.37</v>
+      </c>
+      <c r="I108">
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>43210</v>
+      </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" t="s">
+        <v>81</v>
+      </c>
+      <c r="E109" t="s">
+        <v>107</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109">
+        <v>5808.97</v>
+      </c>
+      <c r="I109">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>43262</v>
+      </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" t="s">
+        <v>81</v>
+      </c>
+      <c r="E110" t="s">
+        <v>107</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110">
+        <f>-SUM(H106:H109)</f>
+        <v>-21670.170000000002</v>
+      </c>
+      <c r="I110">
+        <v>37075</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>43412</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" t="s">
+        <v>81</v>
+      </c>
+      <c r="E111" t="s">
+        <v>107</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111">
+        <v>5670.19</v>
+      </c>
+      <c r="I111">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>43467</v>
+      </c>
+      <c r="B112" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" t="s">
+        <v>81</v>
+      </c>
+      <c r="E112" t="s">
+        <v>107</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112">
+        <v>4485.5</v>
+      </c>
+      <c r="I112">
+        <v>-8000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>43468</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" t="s">
+        <v>81</v>
+      </c>
+      <c r="E113" t="s">
+        <v>114</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113">
+        <v>1120.3699999999999</v>
+      </c>
+      <c r="I113">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>43469</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" t="s">
+        <v>81</v>
+      </c>
+      <c r="E114" t="s">
+        <v>114</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" s="5">
+        <f>H113*2</f>
+        <v>2240.7399999999998</v>
+      </c>
+      <c r="I114">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>43412</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" t="s">
+        <v>81</v>
+      </c>
+      <c r="E115" t="s">
+        <v>115</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115">
         <v>9992.01</v>
       </c>
-      <c r="I108">
+      <c r="I115">
         <v>-10000</v>
       </c>
     </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43467</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" t="s">
+        <v>81</v>
+      </c>
+      <c r="E116" t="s">
+        <v>115</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116">
+        <v>7630.4</v>
+      </c>
+      <c r="I116">
+        <v>-8000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>43468</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" t="s">
+        <v>81</v>
+      </c>
+      <c r="E117" t="s">
+        <v>115</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117">
+        <v>1904.51</v>
+      </c>
+      <c r="I117">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43469</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" t="s">
+        <v>81</v>
+      </c>
+      <c r="E118" t="s">
+        <v>115</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="5">
+        <f>H117*2</f>
+        <v>3809.02</v>
+      </c>
+      <c r="I118">
+        <v>-4000</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:I93">
-    <sortCondition ref="E1:E93"/>
+  <sortState ref="A1:I97">
+    <sortCondition ref="E1:E97"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E9 E94:E95" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E9 E98:E99" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>channel</formula1>
     </dataValidation>
   </dataValidations>
@@ -4788,7 +5115,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4797,176 +5124,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>64</v>
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>70</v>
+      <c r="A2" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B2">
         <v>269387</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>71</v>
+      <c r="A3" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B3">
         <v>67521</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>72</v>
+      <c r="A4" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B4">
         <v>15916</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>73</v>
+      <c r="A5" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B5">
         <v>5987</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>74</v>
+      <c r="A6" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B6">
         <v>15989</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>75</v>
+      <c r="A7" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B7">
         <v>19457</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>76</v>
+      <c r="A8" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B8">
         <v>15064</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>77</v>
+      <c r="A9" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B9">
         <v>39429</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>78</v>
+      <c r="A10" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B10">
         <v>27655</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>66</v>
+      <c r="A11" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B11">
         <v>35807</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>67</v>
+      <c r="A12" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B12">
         <v>27831</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>68</v>
+      <c r="A13" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B13">
         <v>33830</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>69</v>
+      <c r="A14" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B14">
         <v>24574</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>79</v>
+      <c r="A15" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B15">
         <v>44868</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>82</v>
+      <c r="A16" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B16">
         <v>36710</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>88</v>
+      <c r="A17" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B17">
         <v>95288</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>99</v>
+      <c r="A18" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B18">
         <v>187100</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>100</v>
+      <c r="A19" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B19">
         <v>217740</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>101</v>
+      <c r="A20" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B20">
         <v>4900</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>104</v>
+      <c r="A21" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B21">
         <v>9760</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>105</v>
+      <c r="A22" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B22">
         <v>21960</v>
@@ -4980,11 +5307,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F217" sqref="F217"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5005,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -5014,7 +5341,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
         <v>44</v>
@@ -5028,7 +5355,7 @@
         <v>38</v>
       </c>
       <c r="C2" t="str">
-        <f>IF(OR(B2="工行8987",B2="工行1778",B2="支付宝_131",B2="华泰证券",B2="天天基金",B2="人人贷",B2="陆金所"), "理财账户", "非理财账户")</f>
+        <f>IF(OR(B2="中行6776", B2="工行8987",B2="工行1778",B2="支付宝_173",B2="华泰证券",B2="天天基金",B2="人人贷",B2="陆金所"), "理财账户", "非理财账户")</f>
         <v>理财账户</v>
       </c>
       <c r="D2" t="s">
@@ -5052,7 +5379,7 @@
         <v>39</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">IF(OR(B3="工行8987",B3="工行1778",B3="支付宝_131",B3="华泰证券",B3="天天基金",B3="人人贷",B3="陆金所"), "理财账户", "非理财账户")</f>
+        <f t="shared" ref="C3:C66" si="0">IF(OR(B3="中行6776", B3="工行8987",B3="工行1778",B3="支付宝_173",B3="华泰证券",B3="天天基金",B3="人人贷",B3="陆金所"), "理财账户", "非理财账户")</f>
         <v>非理财账户</v>
       </c>
       <c r="D3" t="s">
@@ -5101,7 +5428,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>非理财账户</v>
+        <v>理财账户</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -5121,7 +5448,7 @@
         <v>43101</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -5241,14 +5568,14 @@
         <v>43101</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>非理财账户</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -5326,7 +5653,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G14">
         <v>91025</v>
@@ -5347,7 +5674,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
@@ -5433,7 +5760,7 @@
         <v>43101</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -5458,7 +5785,7 @@
         <v>43101</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -5482,7 +5809,7 @@
         <v>43101</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -5510,7 +5837,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>非理财账户</v>
+        <v>理财账户</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -5530,7 +5857,7 @@
         <v>43101</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -5543,7 +5870,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G23">
         <v>112526</v>
@@ -5554,7 +5881,7 @@
         <v>43101</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -5567,7 +5894,7 @@
         <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G24">
         <v>-701</v>
@@ -5578,7 +5905,7 @@
         <v>43101</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -5602,7 +5929,7 @@
         <v>43101</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -5615,34 +5942,34 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G26">
         <f>8716+2079</f>
         <v>10795</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="27" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>43132</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="6" t="str">
+      <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>理财账户</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="D27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5">
         <v>45</v>
       </c>
     </row>
@@ -5703,7 +6030,7 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>非理财账户</v>
+        <v>理财账户</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -5723,7 +6050,7 @@
         <v>43132</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -5843,7 +6170,7 @@
         <v>43132</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -5929,7 +6256,7 @@
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G39">
         <v>91633</v>
@@ -5950,7 +6277,7 @@
         <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
         <v>30</v>
@@ -6012,7 +6339,7 @@
         <v>43132</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
@@ -6036,7 +6363,7 @@
         <v>43132</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
@@ -6064,7 +6391,7 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>非理财账户</v>
+        <v>理财账户</v>
       </c>
       <c r="D45" t="s">
         <v>36</v>
@@ -6084,7 +6411,7 @@
         <v>43132</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -6097,7 +6424,7 @@
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>109845</v>
@@ -6108,7 +6435,7 @@
         <v>43132</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -6132,7 +6459,7 @@
         <v>43132</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
@@ -6145,7 +6472,7 @@
         <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G48">
         <v>18347</v>
@@ -6156,7 +6483,7 @@
         <v>43132</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
@@ -6169,33 +6496,33 @@
         <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G49">
         <v>-1048</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+    <row r="50" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
         <v>43160</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="6" t="str">
+      <c r="C50" t="str">
         <f t="shared" si="0"/>
         <v>理财账户</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="6">
+      <c r="D50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="5">
         <v>30</v>
       </c>
     </row>
@@ -6256,7 +6583,7 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v>非理财账户</v>
+        <v>理财账户</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -6276,7 +6603,7 @@
         <v>43160</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
@@ -6396,7 +6723,7 @@
         <v>43160</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
@@ -6503,7 +6830,7 @@
         <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F63" t="s">
         <v>30</v>
@@ -6578,7 +6905,7 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G66">
         <v>13310</v>
@@ -6589,10 +6916,10 @@
         <v>43160</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C130" si="1">IF(OR(B67="工行8987",B67="工行1778",B67="支付宝_131",B67="华泰证券",B67="天天基金",B67="人人贷",B67="陆金所"), "理财账户", "非理财账户")</f>
+        <f t="shared" ref="C67:C130" si="1">IF(OR(B67="中行6776", B67="工行8987",B67="工行1778",B67="支付宝_173",B67="华泰证券",B67="天天基金",B67="人人贷",B67="陆金所"), "理财账户", "非理财账户")</f>
         <v>非理财账户</v>
       </c>
       <c r="D67" t="s">
@@ -6613,7 +6940,7 @@
         <v>43160</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
@@ -6637,7 +6964,7 @@
         <v>43160</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
@@ -6665,7 +6992,7 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
-        <v>非理财账户</v>
+        <v>理财账户</v>
       </c>
       <c r="D70" t="s">
         <v>36</v>
@@ -6685,7 +7012,7 @@
         <v>43160</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
@@ -6698,7 +7025,7 @@
         <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G71">
         <v>62814</v>
@@ -6709,7 +7036,7 @@
         <v>43160</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
@@ -6722,7 +7049,7 @@
         <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G72">
         <v>10000</v>
@@ -6733,7 +7060,7 @@
         <v>43160</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
@@ -6757,7 +7084,7 @@
         <v>43160</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
@@ -6770,7 +7097,7 @@
         <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G74">
         <v>23537</v>
@@ -6781,7 +7108,7 @@
         <v>43160</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
@@ -6794,33 +7121,33 @@
         <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G75">
         <v>-1069</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5">
+    <row r="76" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
         <v>43191</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C76" s="6" t="str">
+      <c r="C76" t="str">
         <f t="shared" si="1"/>
         <v>理财账户</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="6">
+      <c r="D76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="5">
         <v>30</v>
       </c>
     </row>
@@ -6881,7 +7208,7 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
-        <v>非理财账户</v>
+        <v>理财账户</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -6901,7 +7228,7 @@
         <v>43191</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
@@ -7021,7 +7348,7 @@
         <v>43191</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
@@ -7107,7 +7434,7 @@
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G88">
         <v>92874</v>
@@ -7128,7 +7455,7 @@
         <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F89" t="s">
         <v>30</v>
@@ -7203,7 +7530,7 @@
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G92">
         <v>32625</v>
@@ -7214,7 +7541,7 @@
         <v>43191</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
@@ -7238,7 +7565,7 @@
         <v>43191</v>
       </c>
       <c r="B94" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
@@ -7262,7 +7589,7 @@
         <v>43191</v>
       </c>
       <c r="B95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
@@ -7290,7 +7617,7 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
-        <v>非理财账户</v>
+        <v>理财账户</v>
       </c>
       <c r="D96" t="s">
         <v>36</v>
@@ -7310,7 +7637,7 @@
         <v>43191</v>
       </c>
       <c r="B97" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
@@ -7323,7 +7650,7 @@
         <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G97">
         <v>73862</v>
@@ -7334,7 +7661,7 @@
         <v>43191</v>
       </c>
       <c r="B98" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
@@ -7347,7 +7674,7 @@
         <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G98">
         <v>10000</v>
@@ -7358,7 +7685,7 @@
         <v>43191</v>
       </c>
       <c r="B99" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
@@ -7382,7 +7709,7 @@
         <v>43191</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
@@ -7392,10 +7719,10 @@
         <v>33</v>
       </c>
       <c r="E100" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F100" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G100">
         <v>20072</v>
@@ -7406,7 +7733,7 @@
         <v>43191</v>
       </c>
       <c r="B101" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
@@ -7419,7 +7746,7 @@
         <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G101">
         <v>2728</v>
@@ -7430,7 +7757,7 @@
         <v>43191</v>
       </c>
       <c r="B102" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="1"/>
@@ -7443,33 +7770,33 @@
         <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G102">
         <v>-453</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5">
+    <row r="103" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
         <v>43221</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C103" s="6" t="str">
+      <c r="C103" t="str">
         <f t="shared" si="1"/>
         <v>理财账户</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="6">
+      <c r="D103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="5">
         <v>905</v>
       </c>
     </row>
@@ -7530,7 +7857,7 @@
       </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
-        <v>非理财账户</v>
+        <v>理财账户</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -7550,7 +7877,7 @@
         <v>43221</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
@@ -7586,8 +7913,8 @@
       <c r="E108" t="s">
         <v>12</v>
       </c>
-      <c r="F108" s="7" t="s">
-        <v>89</v>
+      <c r="F108" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="G108">
         <v>11538</v>
@@ -7670,7 +7997,7 @@
         <v>43221</v>
       </c>
       <c r="B112" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
@@ -7756,7 +8083,7 @@
         <v>13</v>
       </c>
       <c r="F115" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G115">
         <v>93524</v>
@@ -7777,7 +8104,7 @@
         <v>33</v>
       </c>
       <c r="E116" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F116" t="s">
         <v>30</v>
@@ -7852,7 +8179,7 @@
         <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G119">
         <v>17826</v>
@@ -7863,7 +8190,7 @@
         <v>43221</v>
       </c>
       <c r="B120" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="1"/>
@@ -7887,7 +8214,7 @@
         <v>43221</v>
       </c>
       <c r="B121" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
@@ -7911,7 +8238,7 @@
         <v>43221</v>
       </c>
       <c r="B122" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="1"/>
@@ -7939,7 +8266,7 @@
       </c>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
-        <v>非理财账户</v>
+        <v>理财账户</v>
       </c>
       <c r="D123" t="s">
         <v>36</v>
@@ -7959,7 +8286,7 @@
         <v>43221</v>
       </c>
       <c r="B124" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
@@ -7972,7 +8299,7 @@
         <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G124">
         <v>81708.41</v>
@@ -7983,7 +8310,7 @@
         <v>43221</v>
       </c>
       <c r="B125" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
@@ -7996,7 +8323,7 @@
         <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G125">
         <v>1003.97</v>
@@ -8007,7 +8334,7 @@
         <v>43221</v>
       </c>
       <c r="B126" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
@@ -8020,7 +8347,7 @@
         <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G126">
         <v>10287.209999999999</v>
@@ -8031,7 +8358,7 @@
         <v>43221</v>
       </c>
       <c r="B127" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
@@ -8055,7 +8382,7 @@
         <v>43221</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="1"/>
@@ -8065,10 +8392,10 @@
         <v>33</v>
       </c>
       <c r="E128" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F128" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G128">
         <v>37272.69</v>
@@ -8079,7 +8406,7 @@
         <v>43221</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="1"/>
@@ -8092,7 +8419,7 @@
         <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G129">
         <f>3600+888</f>
@@ -8104,7 +8431,7 @@
         <v>43221</v>
       </c>
       <c r="B130" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="1"/>
@@ -8117,33 +8444,33 @@
         <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G130">
         <v>-922.42</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="5">
+    <row r="131" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
         <v>43252</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C131" s="6" t="str">
-        <f t="shared" ref="C131:C194" si="2">IF(OR(B131="工行8987",B131="工行1778",B131="支付宝_131",B131="华泰证券",B131="天天基金",B131="人人贷",B131="陆金所"), "理财账户", "非理财账户")</f>
+      <c r="C131" t="str">
+        <f t="shared" ref="C131:C194" si="2">IF(OR(B131="中行6776", B131="工行8987",B131="工行1778",B131="支付宝_173",B131="华泰证券",B131="天天基金",B131="人人贷",B131="陆金所"), "理财账户", "非理财账户")</f>
         <v>理财账户</v>
       </c>
-      <c r="D131" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G131" s="6">
+      <c r="D131" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="5">
         <v>71445</v>
       </c>
     </row>
@@ -8204,7 +8531,7 @@
       </c>
       <c r="C134" t="str">
         <f t="shared" si="2"/>
-        <v>非理财账户</v>
+        <v>理财账户</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
@@ -8224,7 +8551,7 @@
         <v>43252</v>
       </c>
       <c r="B135" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="2"/>
@@ -8260,7 +8587,7 @@
       <c r="E136" t="s">
         <v>12</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="F136" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G136">
@@ -8344,7 +8671,7 @@
         <v>43252</v>
       </c>
       <c r="B140" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="2"/>
@@ -8430,7 +8757,7 @@
         <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G143">
         <v>37559</v>
@@ -8527,7 +8854,7 @@
         <v>9</v>
       </c>
       <c r="F147" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -8538,7 +8865,7 @@
         <v>43252</v>
       </c>
       <c r="B148" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="2"/>
@@ -8562,7 +8889,7 @@
         <v>43252</v>
       </c>
       <c r="B149" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="2"/>
@@ -8586,7 +8913,7 @@
         <v>43252</v>
       </c>
       <c r="B150" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="2"/>
@@ -8614,7 +8941,7 @@
       </c>
       <c r="C151" t="str">
         <f t="shared" si="2"/>
-        <v>非理财账户</v>
+        <v>理财账户</v>
       </c>
       <c r="D151" t="s">
         <v>36</v>
@@ -8634,7 +8961,7 @@
         <v>43252</v>
       </c>
       <c r="B152" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="2"/>
@@ -8647,7 +8974,7 @@
         <v>45</v>
       </c>
       <c r="F152" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G152">
         <f>91643-G153-G154</f>
@@ -8659,7 +8986,7 @@
         <v>43252</v>
       </c>
       <c r="B153" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="2"/>
@@ -8672,7 +8999,7 @@
         <v>45</v>
       </c>
       <c r="F153" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G153">
         <v>1008</v>
@@ -8683,7 +9010,7 @@
         <v>43252</v>
       </c>
       <c r="B154" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="2"/>
@@ -8696,7 +9023,7 @@
         <v>45</v>
       </c>
       <c r="F154" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G154">
         <v>10335</v>
@@ -8707,7 +9034,7 @@
         <v>43252</v>
       </c>
       <c r="B155" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="2"/>
@@ -8731,7 +9058,7 @@
         <v>43252</v>
       </c>
       <c r="B156" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="2"/>
@@ -8741,10 +9068,10 @@
         <v>33</v>
       </c>
       <c r="E156" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F156" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G156">
         <v>37129</v>
@@ -8755,7 +9082,7 @@
         <v>43252</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="2"/>
@@ -8768,7 +9095,7 @@
         <v>37</v>
       </c>
       <c r="F157" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G157">
         <v>13429</v>
@@ -8779,7 +9106,7 @@
         <v>43252</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="2"/>
@@ -8792,33 +9119,33 @@
         <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G158">
         <v>-1626.5</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="5">
+    <row r="159" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
         <v>43344</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C159" s="6" t="str">
+      <c r="C159" t="str">
         <f t="shared" si="2"/>
         <v>理财账户</v>
       </c>
-      <c r="D159" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G159" s="6">
+      <c r="D159" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8879,7 +9206,7 @@
       </c>
       <c r="C162" t="str">
         <f t="shared" si="2"/>
-        <v>非理财账户</v>
+        <v>理财账户</v>
       </c>
       <c r="D162" t="s">
         <v>9</v>
@@ -8899,7 +9226,7 @@
         <v>43344</v>
       </c>
       <c r="B163" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="2"/>
@@ -8936,7 +9263,7 @@
         <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G164">
         <v>7003</v>
@@ -9019,7 +9346,7 @@
         <v>43344</v>
       </c>
       <c r="B168" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="2"/>
@@ -9105,7 +9432,7 @@
         <v>13</v>
       </c>
       <c r="F171" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G171">
         <v>22749</v>
@@ -9202,7 +9529,7 @@
         <v>9</v>
       </c>
       <c r="F175" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G175">
         <v>10519</v>
@@ -9213,7 +9540,7 @@
         <v>43344</v>
       </c>
       <c r="B176" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="2"/>
@@ -9238,7 +9565,7 @@
         <v>43344</v>
       </c>
       <c r="B177" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="2"/>
@@ -9263,7 +9590,7 @@
         <v>43344</v>
       </c>
       <c r="B178" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="2"/>
@@ -9291,7 +9618,7 @@
       </c>
       <c r="C179" t="str">
         <f t="shared" si="2"/>
-        <v>非理财账户</v>
+        <v>理财账户</v>
       </c>
       <c r="D179" t="s">
         <v>36</v>
@@ -9311,7 +9638,7 @@
         <v>43344</v>
       </c>
       <c r="B180" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="2"/>
@@ -9324,7 +9651,7 @@
         <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G180">
         <v>11017</v>
@@ -9335,7 +9662,7 @@
         <v>43344</v>
       </c>
       <c r="B181" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="2"/>
@@ -9359,7 +9686,7 @@
         <v>43344</v>
       </c>
       <c r="B182" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="2"/>
@@ -9372,7 +9699,7 @@
         <v>37</v>
       </c>
       <c r="F182" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G182">
         <v>28514</v>
@@ -9383,7 +9710,7 @@
         <v>43344</v>
       </c>
       <c r="B183" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="2"/>
@@ -9396,622 +9723,622 @@
         <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="24">
+    <row r="184" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="16">
         <v>43435</v>
       </c>
-      <c r="B184" s="25" t="s">
+      <c r="B184" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C184" s="6" t="str">
+      <c r="C184" t="str">
         <f t="shared" si="2"/>
         <v>理财账户</v>
       </c>
-      <c r="D184" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E184" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F184" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G184" s="25">
+      <c r="D184" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G184" s="17">
         <v>0</v>
       </c>
-      <c r="H184" s="25"/>
+      <c r="H184" s="17"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="16">
+      <c r="A185" s="10">
         <v>43435</v>
       </c>
-      <c r="B185" s="15" t="s">
+      <c r="B185" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="2"/>
         <v>非理财账户</v>
       </c>
-      <c r="D185" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E185" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F185" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G185" s="15">
+      <c r="D185" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="9">
         <v>0</v>
       </c>
-      <c r="H185" s="15"/>
+      <c r="H185" s="9"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="16">
+      <c r="A186" s="10">
         <v>43435</v>
       </c>
-      <c r="B186" s="15" t="s">
+      <c r="B186" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="2"/>
         <v>理财账户</v>
       </c>
-      <c r="D186" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F186" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G186" s="15">
+      <c r="D186" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" s="9">
         <v>2466</v>
       </c>
-      <c r="H186" s="15"/>
+      <c r="H186" s="9"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="16">
+      <c r="A187" s="10">
         <v>43435</v>
       </c>
-      <c r="B187" s="15" t="s">
+      <c r="B187" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="2"/>
-        <v>非理财账户</v>
-      </c>
-      <c r="D187" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G187" s="15">
+        <v>理财账户</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187" s="9">
         <v>0</v>
       </c>
-      <c r="H187" s="15"/>
+      <c r="H187" s="9"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" s="16">
+      <c r="A188" s="10">
         <v>43435</v>
       </c>
-      <c r="B188" s="15" t="s">
-        <v>109</v>
+      <c r="B188" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="2"/>
         <v>非理财账户</v>
       </c>
-      <c r="D188" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F188" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G188" s="15">
+      <c r="D188" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G188" s="9">
         <v>3525</v>
       </c>
-      <c r="H188" s="15"/>
+      <c r="H188" s="9"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189" s="16">
+      <c r="A189" s="10">
         <v>43435</v>
       </c>
-      <c r="B189" s="15" t="s">
+      <c r="B189" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="2"/>
         <v>理财账户</v>
       </c>
-      <c r="D189" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E189" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F189" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G189" s="15">
+      <c r="D189" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G189" s="9">
         <v>16338</v>
       </c>
-      <c r="H189" s="15"/>
+      <c r="H189" s="9"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="16">
+      <c r="A190" s="10">
         <v>43435</v>
       </c>
-      <c r="B190" s="15" t="s">
+      <c r="B190" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="2"/>
         <v>非理财账户</v>
       </c>
-      <c r="D190" s="15" t="s">
+      <c r="D190" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E190" s="15" t="s">
+      <c r="E190" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F190" s="15" t="s">
+      <c r="F190" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G190" s="15">
+      <c r="G190" s="9">
         <v>16016</v>
       </c>
-      <c r="H190" s="15"/>
+      <c r="H190" s="9"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="16">
+      <c r="A191" s="10">
         <v>43435</v>
       </c>
-      <c r="B191" s="15" t="s">
+      <c r="B191" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="2"/>
         <v>非理财账户</v>
       </c>
-      <c r="D191" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E191" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F191" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G191" s="15">
+      <c r="D191" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191" s="9">
         <v>4975</v>
       </c>
-      <c r="H191" s="15"/>
+      <c r="H191" s="9"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="16">
+      <c r="A192" s="10">
         <v>43435</v>
       </c>
-      <c r="B192" s="15" t="s">
-        <v>54</v>
+      <c r="B192" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="2"/>
         <v>非理财账户</v>
       </c>
-      <c r="D192" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E192" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F192" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G192" s="15">
+      <c r="D192" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G192" s="9">
         <v>0</v>
       </c>
-      <c r="H192" s="15"/>
+      <c r="H192" s="9"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" s="16">
+      <c r="A193" s="10">
         <v>43435</v>
       </c>
-      <c r="B193" s="15" t="s">
+      <c r="B193" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="2"/>
         <v>理财账户</v>
       </c>
-      <c r="D193" s="15" t="s">
+      <c r="D193" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E193" s="15" t="s">
+      <c r="E193" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F193" s="15" t="s">
+      <c r="F193" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G193" s="15">
+      <c r="G193" s="9">
         <v>0</v>
       </c>
-      <c r="H193" s="15"/>
+      <c r="H193" s="9"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A194" s="16">
+      <c r="A194" s="10">
         <v>43435</v>
       </c>
-      <c r="B194" s="15" t="s">
+      <c r="B194" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C194" t="str">
         <f t="shared" si="2"/>
         <v>非理财账户</v>
       </c>
-      <c r="D194" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E194" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F194" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G194" s="15">
+      <c r="D194" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G194" s="9">
         <v>0</v>
       </c>
-      <c r="H194" s="15"/>
+      <c r="H194" s="9"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" s="16">
+      <c r="A195" s="10">
         <v>43435</v>
       </c>
-      <c r="B195" s="15" t="s">
+      <c r="B195" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C233" si="3">IF(OR(B195="工行8987",B195="工行1778",B195="支付宝_131",B195="华泰证券",B195="天天基金",B195="人人贷",B195="陆金所"), "理财账户", "非理财账户")</f>
+        <f t="shared" ref="C195:C258" si="3">IF(OR(B195="中行6776", B195="工行8987",B195="工行1778",B195="支付宝_173",B195="华泰证券",B195="天天基金",B195="人人贷",B195="陆金所"), "理财账户", "非理财账户")</f>
         <v>理财账户</v>
       </c>
-      <c r="D195" s="15" t="s">
+      <c r="D195" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E195" s="15" t="s">
+      <c r="E195" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F195" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G195" s="15">
+      <c r="F195" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G195" s="9">
         <v>0</v>
       </c>
-      <c r="H195" s="15"/>
+      <c r="H195" s="9"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="16">
+      <c r="A196" s="10">
         <v>43435</v>
       </c>
-      <c r="B196" s="15" t="s">
+      <c r="B196" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C196" t="str">
         <f t="shared" si="3"/>
         <v>理财账户</v>
       </c>
-      <c r="D196" s="15" t="s">
+      <c r="D196" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E196" s="15" t="s">
+      <c r="E196" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F196" s="15" t="s">
+      <c r="F196" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G196" s="15">
+      <c r="G196" s="9">
         <v>0</v>
       </c>
-      <c r="H196" s="15"/>
+      <c r="H196" s="9"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" s="16">
+      <c r="A197" s="10">
         <v>43435</v>
       </c>
-      <c r="B197" s="15" t="s">
+      <c r="B197" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D197" s="15" t="s">
+      <c r="D197" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E197" s="15" t="s">
+      <c r="E197" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F197" s="15" t="s">
+      <c r="F197" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G197" s="15">
+      <c r="G197" s="9">
         <f>175519+50000</f>
         <v>225519</v>
       </c>
-      <c r="H197" s="15"/>
+      <c r="H197" s="9"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A198" s="16">
+      <c r="A198" s="10">
         <v>43435</v>
       </c>
-      <c r="B198" s="15" t="s">
+      <c r="B198" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D198" s="15" t="s">
+      <c r="D198" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E198" s="15" t="s">
+      <c r="E198" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F198" s="15" t="s">
+      <c r="F198" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G198" s="15">
+      <c r="G198" s="9">
         <f>23615+30323</f>
         <v>53938</v>
       </c>
-      <c r="H198" s="15"/>
+      <c r="H198" s="9"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A199" s="16">
+      <c r="A199" s="10">
         <v>43435</v>
       </c>
-      <c r="B199" s="15" t="s">
+      <c r="B199" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D199" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E199" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G199" s="15">
+      <c r="D199" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G199" s="9">
         <v>0</v>
       </c>
-      <c r="H199" s="15"/>
+      <c r="H199" s="9"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A200" s="16">
+      <c r="A200" s="10">
         <v>43435</v>
       </c>
-      <c r="B200" s="15" t="s">
-        <v>56</v>
+      <c r="B200" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C200" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D200" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E200" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F200" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G200" s="15">
+      <c r="D200" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G200" s="9">
         <v>0</v>
       </c>
-      <c r="H200" s="15"/>
+      <c r="H200" s="9"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A201" s="16">
+      <c r="A201" s="10">
         <v>43435</v>
       </c>
-      <c r="B201" s="15" t="s">
-        <v>57</v>
+      <c r="B201" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D201" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E201" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F201" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G201" s="15">
+      <c r="D201" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G201" s="9">
         <f>7869-8000</f>
         <v>-131</v>
       </c>
-      <c r="H201" s="15"/>
+      <c r="H201" s="9"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202" s="16">
+      <c r="A202" s="10">
         <v>43435</v>
       </c>
-      <c r="B202" s="15" t="s">
-        <v>58</v>
+      <c r="B202" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C202" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D202" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E202" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F202" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G202" s="15">
+      <c r="D202" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G202" s="9">
         <v>-46864</v>
       </c>
-      <c r="H202" s="15"/>
+      <c r="H202" s="9"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203" s="16">
+      <c r="A203" s="10">
         <v>43435</v>
       </c>
-      <c r="B203" s="15" t="s">
+      <c r="B203" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C203" t="str">
         <f t="shared" si="3"/>
-        <v>非理财账户</v>
-      </c>
-      <c r="D203" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E203" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F203" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G203" s="15">
+        <v>理财账户</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G203" s="9">
         <v>0</v>
       </c>
-      <c r="H203" s="15"/>
+      <c r="H203" s="9"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="16">
+      <c r="A204" s="10">
         <v>43435</v>
       </c>
-      <c r="B204" s="15" t="s">
-        <v>160</v>
+      <c r="B204" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="C204" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D204" s="15" t="s">
+      <c r="D204" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E204" s="15" t="s">
+      <c r="E204" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F204" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G204" s="15">
+      <c r="F204" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G204" s="9">
         <f>20093+30109</f>
         <v>50202</v>
       </c>
-      <c r="H204" s="15"/>
+      <c r="H204" s="9"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" s="16">
+      <c r="A205" s="10">
         <v>43435</v>
       </c>
-      <c r="B205" s="15" t="s">
-        <v>160</v>
+      <c r="B205" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D205" s="15" t="s">
+      <c r="D205" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E205" s="15" t="s">
+      <c r="E205" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F205" s="15" t="s">
+      <c r="F205" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G205" s="15">
+      <c r="G205" s="9">
         <v>8504</v>
       </c>
-      <c r="H205" s="15"/>
+      <c r="H205" s="9"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="16">
+      <c r="A206" s="10">
         <v>43435</v>
       </c>
-      <c r="B206" s="15" t="s">
-        <v>160</v>
+      <c r="B206" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D206" s="15" t="s">
+      <c r="D206" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E206" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F206" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G206" s="15">
+      <c r="E206" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F206" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G206" s="9">
         <v>10090</v>
       </c>
-      <c r="H206" s="15"/>
+      <c r="H206" s="9"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="16">
+      <c r="A207" s="10">
         <v>43435</v>
       </c>
-      <c r="B207" s="15" t="s">
-        <v>160</v>
+      <c r="B207" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D207" s="15" t="s">
+      <c r="D207" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E207" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F207" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G207" s="15">
+      <c r="E207" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G207" s="9">
         <v>10078</v>
       </c>
-      <c r="H207" s="15"/>
+      <c r="H207" s="9"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208" s="16">
+      <c r="A208" s="10">
         <v>43435</v>
       </c>
       <c r="B208" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C208" t="str">
         <f t="shared" si="3"/>
@@ -10024,19 +10351,19 @@
         <v>37</v>
       </c>
       <c r="F208" t="s">
-        <v>114</v>
-      </c>
-      <c r="G208" s="15">
+        <v>109</v>
+      </c>
+      <c r="G208" s="9">
         <v>31984</v>
       </c>
-      <c r="H208" s="15"/>
+      <c r="H208" s="9"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="16">
+      <c r="A209" s="10">
         <v>43435</v>
       </c>
       <c r="B209" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C209" t="str">
         <f t="shared" si="3"/>
@@ -10049,135 +10376,135 @@
         <v>36</v>
       </c>
       <c r="F209" t="s">
-        <v>115</v>
-      </c>
-      <c r="G209" s="15">
+        <v>110</v>
+      </c>
+      <c r="G209" s="9">
         <v>-4579</v>
       </c>
-      <c r="H209" s="15"/>
-    </row>
-    <row r="210" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="24">
+      <c r="H209" s="9"/>
+    </row>
+    <row r="210" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="16">
         <v>43466</v>
       </c>
-      <c r="B210" s="25" t="s">
+      <c r="B210" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C210" s="6" t="str">
+      <c r="C210" t="str">
         <f t="shared" si="3"/>
         <v>理财账户</v>
       </c>
-      <c r="D210" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E210" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F210" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G210" s="25">
+      <c r="D210" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F210" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G210" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="16">
+      <c r="A211" s="10">
         <v>43466</v>
       </c>
-      <c r="B211" s="15" t="s">
+      <c r="B211" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C211" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D211" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E211" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F211" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G211" s="15">
+      <c r="D211" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G211" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="16">
+      <c r="A212" s="10">
         <v>43466</v>
       </c>
-      <c r="B212" s="15" t="s">
+      <c r="B212" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="3"/>
         <v>理财账户</v>
       </c>
-      <c r="D212" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E212" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F212" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G212" s="15">
+      <c r="D212" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G212" s="9">
         <v>8295</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A213" s="16">
+      <c r="A213" s="10">
         <v>43466</v>
       </c>
-      <c r="B213" s="15" t="s">
+      <c r="B213" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="3"/>
-        <v>非理财账户</v>
-      </c>
-      <c r="D213" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E213" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F213" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G213" s="15">
+        <v>理财账户</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G213" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="16">
+      <c r="A214" s="10">
         <v>43466</v>
       </c>
-      <c r="B214" s="15" t="s">
-        <v>109</v>
+      <c r="B214" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D214" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F214" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G214" s="15">
+      <c r="D214" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G214" s="9">
         <v>45431</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A215" s="16">
+      <c r="A215" s="10">
         <v>43466</v>
       </c>
       <c r="B215" t="s">
@@ -10194,445 +10521,1143 @@
         <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G215">
         <v>10707</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="16">
+      <c r="A216" s="10">
         <v>43466</v>
       </c>
-      <c r="B216" s="15" t="s">
+      <c r="B216" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="3"/>
         <v>理财账户</v>
       </c>
-      <c r="D216" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E216" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F216" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G216" s="15">
+      <c r="D216" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G216" s="9">
         <v>5583</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217" s="16">
+      <c r="A217" s="10">
         <v>43466</v>
       </c>
-      <c r="B217" s="15" t="s">
+      <c r="B217" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D217" s="15" t="s">
+      <c r="D217" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E217" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F217" s="15" t="s">
+      <c r="E217" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F217" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G217" s="15">
+      <c r="G217" s="9">
         <v>16069</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="16">
+      <c r="A218" s="10">
         <v>43466</v>
       </c>
-      <c r="B218" s="15" t="s">
+      <c r="B218" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D218" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E218" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F218" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G218" s="15">
+      <c r="D218" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E218" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G218" s="9">
         <v>3003</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="16">
+      <c r="A219" s="10">
         <v>43466</v>
       </c>
-      <c r="B219" s="15" t="s">
-        <v>54</v>
+      <c r="B219" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D219" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E219" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F219" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G219" s="15">
+      <c r="D219" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E219" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F219" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G219" s="9">
         <v>-1229</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="16">
+      <c r="A220" s="10">
         <v>43466</v>
       </c>
-      <c r="B220" s="15" t="s">
+      <c r="B220" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="3"/>
         <v>理财账户</v>
       </c>
-      <c r="D220" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E220" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F220" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G220" s="15">
+      <c r="D220" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G220" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221" s="16">
+      <c r="A221" s="10">
         <v>43466</v>
       </c>
-      <c r="B221" s="15" t="s">
+      <c r="B221" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D221" s="15" t="s">
+      <c r="D221" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E221" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F221" s="15" t="s">
+      <c r="E221" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F221" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G221" s="15">
+      <c r="G221" s="9">
         <f>114851+50000</f>
         <v>164851</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A222" s="16">
+      <c r="A222" s="10">
         <v>43466</v>
       </c>
-      <c r="B222" s="15" t="s">
+      <c r="B222" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D222" s="15" t="s">
+      <c r="D222" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E222" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F222" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G222" s="15">
+      <c r="E222" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F222" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G222" s="9">
         <v>10544</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A223" s="16">
+      <c r="A223" s="10">
         <v>43466</v>
       </c>
-      <c r="B223" s="15" t="s">
-        <v>123</v>
+      <c r="B223" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D223" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E223" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F223" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G223" s="15">
+      <c r="D223" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G223" s="9">
         <v>3425</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A224" s="16">
+      <c r="A224" s="10">
         <v>43466</v>
       </c>
-      <c r="B224" s="15" t="s">
-        <v>56</v>
+      <c r="B224" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D224" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E224" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F224" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G224" s="15">
+      <c r="D224" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E224" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F224" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G224" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A225" s="16">
+      <c r="A225" s="10">
         <v>43466</v>
       </c>
-      <c r="B225" s="15" t="s">
-        <v>57</v>
+      <c r="B225" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D225" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E225" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F225" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G225" s="15">
+      <c r="D225" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G225" s="9">
         <f>7469-8000</f>
         <v>-531</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226" s="16">
+      <c r="A226" s="10">
         <v>43466</v>
       </c>
-      <c r="B226" s="15" t="s">
-        <v>58</v>
+      <c r="B226" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D226" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E226" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F226" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G226" s="15">
+      <c r="D226" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F226" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G226" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" s="16">
+      <c r="A227" s="10">
         <v>43466</v>
       </c>
-      <c r="B227" s="15" t="s">
-        <v>160</v>
+      <c r="B227" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D227" s="15" t="s">
+      <c r="D227" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E227" s="15" t="s">
+      <c r="E227" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F227" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F227" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G227" s="15">
+      <c r="G227" s="9">
         <v>20132</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" s="16">
+      <c r="A228" s="10">
         <v>43466</v>
       </c>
-      <c r="B228" s="15" t="s">
-        <v>160</v>
+      <c r="B228" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D228" s="15" t="s">
+      <c r="D228" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E228" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F228" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G228" s="15">
+      <c r="E228" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F228" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G228" s="9">
         <v>30166.44</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229" s="16">
+      <c r="A229" s="10">
         <v>43466</v>
       </c>
-      <c r="B229" s="15" t="s">
-        <v>160</v>
+      <c r="B229" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D229" s="15" t="s">
+      <c r="D229" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E229" s="15" t="s">
+      <c r="E229" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F229" s="15" t="s">
+      <c r="F229" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G229" s="15">
+      <c r="G229" s="9">
         <v>12490.44</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" s="16">
+      <c r="A230" s="10">
         <v>43466</v>
       </c>
-      <c r="B230" s="15" t="s">
-        <v>160</v>
+      <c r="B230" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D230" s="15" t="s">
+      <c r="D230" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E230" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F230" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G230" s="15">
+      <c r="E230" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F230" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G230" s="9">
         <v>10099.74</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231" s="16">
+      <c r="A231" s="10">
         <v>43466</v>
       </c>
-      <c r="B231" s="15" t="s">
-        <v>160</v>
+      <c r="B231" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D231" s="15" t="s">
+      <c r="D231" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E231" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F231" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G231" s="15">
+      <c r="E231" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G231" s="9">
         <f>261.46+9866.47</f>
         <v>10127.929999999998</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232" s="16">
+      <c r="A232" s="10">
         <v>43466</v>
       </c>
-      <c r="B232" s="15" t="s">
-        <v>160</v>
+      <c r="B232" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D232" s="15" t="s">
+      <c r="D232" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E232" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F232" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G232" s="15">
+      <c r="E232" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G232" s="9">
         <v>26414</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" s="16">
+      <c r="A233" s="10">
         <v>43466</v>
       </c>
-      <c r="B233" s="15" t="s">
-        <v>160</v>
+      <c r="B233" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="C233" t="str">
         <f t="shared" si="3"/>
         <v>非理财账户</v>
       </c>
-      <c r="D233" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E233" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F233" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G233" s="15">
+      <c r="D233" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E233" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F233" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G233" s="9">
         <v>-8465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="16">
+        <v>43497</v>
+      </c>
+      <c r="B234" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" si="3"/>
+        <v>理财账户</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G234" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G235" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" si="3"/>
+        <v>理财账户</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E236" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G236" s="9">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="3"/>
+        <v>理财账户</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E237" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G237" s="9">
+        <v>8534</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C238" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E238" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G238" s="9">
+        <v>15417</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B239" t="s">
+        <v>26</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" si="3"/>
+        <v>理财账户</v>
+      </c>
+      <c r="D239" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239" t="s">
+        <v>12</v>
+      </c>
+      <c r="F239" t="s">
+        <v>105</v>
+      </c>
+      <c r="G239">
+        <v>10995</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C240" t="str">
+        <f t="shared" si="3"/>
+        <v>理财账户</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G240" s="9">
+        <v>5583</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C241" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E241" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G241" s="9">
+        <v>16085</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C242" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E242" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G242" s="9">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C243" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E243" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F243" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G243" s="9">
+        <v>-1299</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C244" t="str">
+        <f t="shared" si="3"/>
+        <v>理财账户</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E244" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G244" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C245" t="str">
+        <f t="shared" si="3"/>
+        <v>理财账户</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E245" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F245" t="s">
+        <v>32</v>
+      </c>
+      <c r="G245" s="9">
+        <v>13779</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C246" t="str">
+        <f t="shared" si="3"/>
+        <v>理财账户</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E246" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F246" t="s">
+        <v>161</v>
+      </c>
+      <c r="G246" s="9">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C247" t="str">
+        <f t="shared" si="3"/>
+        <v>理财账户</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E247" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F247" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G247" s="9">
+        <v>14009</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C248" t="str">
+        <f t="shared" si="3"/>
+        <v>理财账户</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E248" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F248" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G248" s="9">
+        <v>14010</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C249" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E249" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G249" s="9">
+        <v>164953</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C250" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E250" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F250" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G250" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C251" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G251" s="9">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C252" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E252" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F252" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G252" s="9">
+        <v>-4699</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C253" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E253" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F253" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G253" s="9">
+        <f>7438-8000</f>
+        <v>-562</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C254" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E254" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F254" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G254" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C255" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F255" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G255" s="9">
+        <v>20147</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C256" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E256" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F256" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G256" s="9">
+        <v>30184</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C257" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E257" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F257" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G257" s="9">
+        <v>10124</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C258" t="str">
+        <f t="shared" si="3"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E258" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F258" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G258" s="9">
+        <v>10171</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C259" t="str">
+        <f t="shared" ref="C259:C262" si="4">IF(OR(B259="中行6776", B259="工行8987",B259="工行1778",B259="支付宝_173",B259="华泰证券",B259="天天基金",B259="人人贷",B259="陆金所"), "理财账户", "非理财账户")</f>
+        <v>非理财账户</v>
+      </c>
+      <c r="D259" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E259" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F259" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G259" s="9">
+        <v>11045</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C260" t="str">
+        <f t="shared" si="4"/>
+        <v>非理财账户</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E260" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F260" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G260" s="9">
+        <f>5772-14000</f>
+        <v>-8228</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C261" t="str">
+        <f t="shared" si="4"/>
+        <v>理财账户</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E261" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F261" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G261" s="9">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="19">
+        <v>43497</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C262" t="str">
+        <f t="shared" si="4"/>
+        <v>理财账户</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E262" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F262" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G262" s="9">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -10651,34 +11676,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C3:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43466</v>
       </c>
@@ -10686,13 +11717,20 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>320000</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F8" si="0">D2*E2</f>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43466</v>
       </c>
@@ -10700,14 +11738,20 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="8">
-        <f>ROUND(50000/300000,2)</f>
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="D3">
+        <v>320000</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43466</v>
       </c>
@@ -10715,45 +11759,62 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="8">
-        <f>ROUND(100000/300000, 2)</f>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="D4">
+        <v>320000</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43466</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="8">
-        <f>ROUND(20000/300000,2)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>320000</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43466</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8">
-        <f>ROUND(30000/300000,2)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>320000</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43466</v>
       </c>
@@ -10761,50 +11822,47 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="8">
-        <f>ROUND(70000/300000,2)</f>
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="D7">
+        <v>320000</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43466</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="8">
-        <f>ROUND(10000/300000,2)</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="8">
-        <f>ROUND(20000/300000,2)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>320000</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="D11" s="8"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10837,161 +11895,161 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="5">
+        <v>300000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4">
+        <v>43142</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4">
+        <v>43209</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4">
+        <v>43310</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>24000</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4">
+        <v>43465</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B2" s="5">
-        <v>43101</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="D6" s="5">
         <v>300000</v>
       </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5">
-        <v>43142</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5">
-        <v>43209</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>15000</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5">
-        <v>43310</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <v>24000</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5">
-        <v>43465</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="6">
-        <v>300000</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f>SUM(E2:E5)</f>
         <v>35000</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f>SUM(F2:F5)</f>
         <v>24000</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="13">
         <v>360000</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f>G6-D6-(E6-F6)</f>
         <v>49000</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="14">
         <f>H6/(D6+E6-F6)</f>
         <v>0.15755627009646303</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -11002,7 +12060,7 @@
         <v>43466</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D9">
         <v>320000</v>
@@ -11013,33 +12071,33 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="14"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="5">
         <v>300000</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f>SUM(E10:E13)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f>SUM(F10:F13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="13">
         <v>360000</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f>G14-D14-(E14-F14)</f>
         <v>60000</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="14">
         <f>H14/(D14+E14-F14)</f>
         <v>0.2</v>
       </c>
@@ -11067,13 +12125,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -11108,15 +12166,15 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -11145,10 +12203,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -11159,10 +12217,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -11173,7 +12231,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -11186,7 +12244,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -11199,19 +12257,19 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -11219,13 +12277,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -11250,22 +12308,22 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" t="s">
-        <v>52</v>
-      </c>
       <c r="H14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
